--- a/dataset/NEW_TEST/selec/AUC_merge.xlsx
+++ b/dataset/NEW_TEST/selec/AUC_merge.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9324901024500529</v>
+        <v>0.9318087736765543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7871302852281922</v>
+        <v>0.7738541163424469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7504678166139697</v>
+        <v>0.7674456380680601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0355903202498123</v>
+        <v>0.03935160107372085</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7683619612149741</v>
+        <v>0.7706365544905527</v>
       </c>
     </row>
   </sheetData>
